--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-11/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-11/curvature_data.xlsx
@@ -379,170 +379,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54712.255079</v>
+        <v>54700.591078</v>
       </c>
       <c r="B2">
-        <v>7.535484583300001e-05</v>
+        <v>7.3737017972e-05</v>
       </c>
       <c r="C2">
-        <v>-5.5251377618e-05</v>
+        <v>9.0954664583e-06</v>
       </c>
       <c r="D2">
-        <v>-0.0001231249646</v>
+        <v>-3.6985589332e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54848.523085</v>
+        <v>54712.255079</v>
       </c>
       <c r="B3">
-        <v>6.3722631689e-05</v>
+        <v>7.535484583300001e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0001987571068</v>
+        <v>-5.5251377618e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00029544152404</v>
+        <v>-0.0001231249646</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54882.123087</v>
+        <v>54726.791079</v>
       </c>
       <c r="B4">
-        <v>-2.7333869222e-05</v>
+        <v>7.766400062e-05</v>
       </c>
       <c r="C4">
-        <v>-2.4770208832e-05</v>
+        <v>-0.0001242510143</v>
       </c>
       <c r="D4">
-        <v>-1.717310658e-05</v>
+        <v>-0.0002111641376</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54771.191082</v>
+        <v>54738.79108</v>
       </c>
       <c r="B5">
-        <v>8.1112636724e-05</v>
+        <v>3.8260886006e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0004007394153</v>
+        <v>-0.0002094351776</v>
       </c>
       <c r="D5">
-        <v>-0.00056062147306</v>
+        <v>-0.00029018802457</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>54780.855082</v>
+        <v>54749.591081</v>
       </c>
       <c r="B6">
-        <v>-0.0002131395</v>
+        <v>5.5473872563e-05</v>
       </c>
       <c r="C6">
-        <v>-0.0003826885</v>
+        <v>-0.00027413068334</v>
       </c>
       <c r="D6">
-        <v>-0.0006680233</v>
+        <v>-0.00038139374038</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>54860.059086</v>
+        <v>54760.523081</v>
       </c>
       <c r="B7">
-        <v>7.1666322443e-05</v>
+        <v>6.6289594012e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00012247277872</v>
+        <v>-0.00034134419744</v>
       </c>
       <c r="D7">
-        <v>-0.00020827970267</v>
+        <v>-0.00047389678952</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>54726.791079</v>
+        <v>54771.191082</v>
       </c>
       <c r="B8">
-        <v>7.766400062e-05</v>
+        <v>8.1112636724e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0001242510143</v>
+        <v>-0.0004007394153</v>
       </c>
       <c r="D8">
-        <v>-0.0002111641376</v>
+        <v>-0.00056062147306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54872.255086</v>
+        <v>54780.855082</v>
       </c>
       <c r="B9">
-        <v>7.5139664651e-05</v>
+        <v>-0.0002131395</v>
       </c>
       <c r="C9">
-        <v>-5.2205693356e-05</v>
+        <v>-0.0003826885</v>
       </c>
       <c r="D9">
-        <v>-0.00012109551379</v>
+        <v>-0.0006680233</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>54760.523081</v>
+        <v>54791.187083</v>
       </c>
       <c r="B10">
-        <v>6.6289594012e-05</v>
+        <v>1.5727754918e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00034134419744</v>
+        <v>-0.00053924266049</v>
       </c>
       <c r="D10">
-        <v>-0.00047389678952</v>
+        <v>-0.00073764194688</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>54824.455084</v>
+        <v>54802.055083</v>
       </c>
       <c r="B11">
-        <v>5.9123397802e-05</v>
+        <v>3.3721940567e-05</v>
       </c>
       <c r="C11">
-        <v>-0.00033984522778</v>
+        <v>-0.00047484195886</v>
       </c>
       <c r="D11">
-        <v>-0.00046559002443</v>
+        <v>-0.00064643136101</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>54749.591081</v>
+        <v>54813.659084</v>
       </c>
       <c r="B12">
-        <v>5.5473872563e-05</v>
+        <v>7.541451554499999e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00027413068334</v>
+        <v>-0.00039968701752</v>
       </c>
       <c r="D12">
-        <v>-0.00038139374038</v>
+        <v>-0.00055702179767</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>54700.591078</v>
+        <v>54824.455084</v>
       </c>
       <c r="B13">
-        <v>7.3737017972e-05</v>
+        <v>5.9123397802e-05</v>
       </c>
       <c r="C13">
-        <v>9.0954664583e-06</v>
+        <v>-0.00033984522778</v>
       </c>
       <c r="D13">
-        <v>-3.6985589332e-05</v>
+        <v>-0.00046559002443</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -561,58 +561,58 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>54802.055083</v>
+        <v>54848.523085</v>
       </c>
       <c r="B15">
-        <v>3.3721940567e-05</v>
+        <v>6.3722631689e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00047484195886</v>
+        <v>-0.0001987571068</v>
       </c>
       <c r="D15">
-        <v>-0.00064643136101</v>
+        <v>-0.00029544152404</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>54791.187083</v>
+        <v>54860.059086</v>
       </c>
       <c r="B16">
-        <v>1.5727754918e-05</v>
+        <v>7.1666322443e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00053924266049</v>
+        <v>-0.00012247277872</v>
       </c>
       <c r="D16">
-        <v>-0.00073764194688</v>
+        <v>-0.00020827970267</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>54813.659084</v>
+        <v>54872.255086</v>
       </c>
       <c r="B17">
-        <v>7.541451554499999e-05</v>
+        <v>7.5139664651e-05</v>
       </c>
       <c r="C17">
-        <v>-0.00039968701752</v>
+        <v>-5.2205693356e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00055702179767</v>
+        <v>-0.00012109551379</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>54738.79108</v>
+        <v>54882.123087</v>
       </c>
       <c r="B18">
-        <v>3.8260886006e-05</v>
+        <v>-2.7333869222e-05</v>
       </c>
       <c r="C18">
-        <v>-0.0002094351776</v>
+        <v>-2.4770208832e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00029018802457</v>
+        <v>-1.717310658e-05</v>
       </c>
     </row>
   </sheetData>
